--- a/lib/jobs/dme_sandia_notes.xlsx
+++ b/lib/jobs/dme_sandia_notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mulvihcr/PycharmProjects/pythonProject/mechsimulator/lib/jobs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B36AD78D-C885-BF44-A745-C2B54E54772F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FA3DAB-B076-7F42-B59C-C3734B4160CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21920" yWindow="460" windowWidth="13120" windowHeight="20600" xr2:uid="{3BD44286-E1B0-A34D-A7A6-9CDA6C4EFBEC}"/>
+    <workbookView xWindow="44900" yWindow="3980" windowWidth="23240" windowHeight="20500" xr2:uid="{3BD44286-E1B0-A34D-A7A6-9CDA6C4EFBEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="39">
   <si>
     <t>version</t>
   </si>
@@ -128,6 +128,30 @@
   </si>
   <si>
     <t>nothing, except /10</t>
+  </si>
+  <si>
+    <t>here is where I started looking at the updated data</t>
+  </si>
+  <si>
+    <t>QOOH = 2CH2O + OH</t>
+  </si>
+  <si>
+    <t>RO2 = QOOH</t>
+  </si>
+  <si>
+    <t>QOOH + O2 = OOQOOH</t>
+  </si>
+  <si>
+    <t>30x</t>
+  </si>
+  <si>
+    <t>qooh = 2ch2o + oh</t>
+  </si>
+  <si>
+    <t>qooh + o2 = ooqooh</t>
+  </si>
+  <si>
+    <t>david asked for 3 reactions:</t>
   </si>
 </sst>
 </file>
@@ -164,12 +188,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -184,11 +214,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3DA8184-A15E-DA42-BB26-708FCB18C3F3}">
-  <dimension ref="B2:G44"/>
+  <dimension ref="B2:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -940,7 +971,7 @@
       </c>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>33</v>
       </c>
@@ -960,7 +991,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>34</v>
       </c>
@@ -972,7 +1003,7 @@
       </c>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>35</v>
       </c>
@@ -984,7 +1015,7 @@
       </c>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>36</v>
       </c>
@@ -996,7 +1027,7 @@
       </c>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>37</v>
       </c>
@@ -1013,7 +1044,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>38</v>
       </c>
@@ -1025,7 +1056,7 @@
       </c>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>39</v>
       </c>
@@ -1037,7 +1068,7 @@
       </c>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>40</v>
       </c>
@@ -1049,7 +1080,7 @@
       </c>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>41</v>
       </c>
@@ -1069,7 +1100,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>42</v>
       </c>
@@ -1081,7 +1112,7 @@
       </c>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>43</v>
       </c>
@@ -1093,7 +1124,7 @@
       </c>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>44</v>
       </c>
@@ -1104,6 +1135,159 @@
         <v>14</v>
       </c>
       <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B45" s="4">
+        <v>45</v>
+      </c>
+      <c r="C45" s="4">
+        <v>2</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="4">
+        <v>510</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B46" s="4">
+        <v>46</v>
+      </c>
+      <c r="C46" s="4">
+        <v>2</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B47" s="4">
+        <v>47</v>
+      </c>
+      <c r="C47" s="4">
+        <v>2</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B48" s="4">
+        <v>48</v>
+      </c>
+      <c r="C48" s="4">
+        <v>2</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="4">
+        <v>512</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G48" s="4"/>
+      <c r="H48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B49" s="4">
+        <v>49</v>
+      </c>
+      <c r="C49" s="4">
+        <v>2</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B50" s="4">
+        <v>50</v>
+      </c>
+      <c r="C50" s="4">
+        <v>2</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B51" s="4">
+        <v>51</v>
+      </c>
+      <c r="C51" s="4">
+        <v>2</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="4">
+        <v>513</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B52" s="4">
+        <v>52</v>
+      </c>
+      <c r="C52" s="4">
+        <v>2</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B53" s="4">
+        <v>53</v>
+      </c>
+      <c r="C53" s="4">
+        <v>2</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/lib/jobs/dme_sandia_notes.xlsx
+++ b/lib/jobs/dme_sandia_notes.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mulvihcr/PycharmProjects/pythonProject/mechsimulator/lib/jobs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FA3DAB-B076-7F42-B59C-C3734B4160CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F16CF28-AAED-B344-8979-B47C80259727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44900" yWindow="3980" windowWidth="23240" windowHeight="20500" xr2:uid="{3BD44286-E1B0-A34D-A7A6-9CDA6C4EFBEC}"/>
+    <workbookView xWindow="49760" yWindow="1240" windowWidth="23240" windowHeight="19800" xr2:uid="{3BD44286-E1B0-A34D-A7A6-9CDA6C4EFBEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="41">
   <si>
     <t>version</t>
   </si>
@@ -152,6 +152,12 @@
   </si>
   <si>
     <t>david asked for 3 reactions:</t>
+  </si>
+  <si>
+    <t>qooh+o2 x10, roo=qooh x3</t>
+  </si>
+  <si>
+    <t>qooh+o2 x10, roo=qooh x10</t>
   </si>
 </sst>
 </file>
@@ -534,14 +540,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3DA8184-A15E-DA42-BB26-708FCB18C3F3}">
-  <dimension ref="B2:H53"/>
+  <dimension ref="B2:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="4" max="4" width="28.83203125" customWidth="1"/>
     <col min="6" max="6" width="21.1640625" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
   </cols>
@@ -1212,7 +1219,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" s="4">
         <v>49</v>
       </c>
@@ -1229,7 +1236,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" s="4">
         <v>50</v>
       </c>
@@ -1243,7 +1250,7 @@
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" s="4">
         <v>51</v>
       </c>
@@ -1261,7 +1268,7 @@
       </c>
       <c r="G51" s="4"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" s="4">
         <v>52</v>
       </c>
@@ -1275,7 +1282,7 @@
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" s="4">
         <v>53</v>
       </c>
@@ -1288,6 +1295,39 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B54" s="4">
+        <v>54</v>
+      </c>
+      <c r="C54" s="4">
+        <v>2</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B55" s="4">
+        <v>55</v>
+      </c>
+      <c r="C55" s="4">
+        <v>2</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I58">
+        <v>389.97</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I59">
+        <f>I58-250*1.06</f>
+        <v>124.97000000000003</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
